--- a/docs/Kicad Files/Atmega_BM83_Board/BOM/Atmega_BM83.xlsx
+++ b/docs/Kicad Files/Atmega_BM83_Board/BOM/Atmega_BM83.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85ce5863630a9cf8/Documents/15-Fall 2024/EE 492/Bluetooth-Speaker-Senior-Design/docs/Kicad Files/Atmega_BM83_Board/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{CAD3767D-8D67-4DBA-8503-8BECF6A0EAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C801AD84-0294-4D4F-A84F-C77DCE29D04E}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{CAD3767D-8D67-4DBA-8503-8BECF6A0EAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A7F9FE9-42FF-491E-A743-EBB029D5206A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35224D92-CEBE-42C4-893D-0726CDACF35D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{35224D92-CEBE-42C4-893D-0726CDACF35D}"/>
   </bookViews>
   <sheets>
     <sheet name="Atmega_BM83" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>Reference</t>
   </si>
@@ -37,18 +38,12 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>DNP</t>
-  </si>
-  <si>
     <t>C1,C2,C3,C4</t>
   </si>
   <si>
     <t>10uF</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>Capacitor_THT:CP_Radial_Tantal_D5.0mm_P5.00mm</t>
   </si>
   <si>
@@ -178,15 +173,6 @@
     <t>R10,R11</t>
   </si>
   <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>AOHPR</t>
-  </si>
-  <si>
-    <t>TestPoint:TestPoint_THTPad_D2.0mm_Drill1.0mm</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -226,9 +212,6 @@
     <t>https://www.seielect.com/catalog/sei-cf_cfm.pdf</t>
   </si>
   <si>
-    <t>https://www.nichicon.co.jp/english/series_items/catalog_pdf/e-uvr.pdf</t>
-  </si>
-  <si>
     <t>https://www.we-online.com/katalog/datasheet/691137710002.pdf</t>
   </si>
   <si>
@@ -263,13 +246,64 @@
   </si>
   <si>
     <t>UVY2D0R1MED1TD</t>
+  </si>
+  <si>
+    <t>https://www.cde.com/resources/catalogs/STD-DIPPED.pdf</t>
+  </si>
+  <si>
+    <t>CD15FD221JO3</t>
+  </si>
+  <si>
+    <t>P/N</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/61200621621.pdf</t>
+  </si>
+  <si>
+    <t>CF18JT4K70</t>
+  </si>
+  <si>
+    <t>CF14JT10K0</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-P</t>
+  </si>
+  <si>
+    <t>LM7805T</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Atmega to BM83 Board BOM</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Screw Terminal</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>Microprocessor</t>
+  </si>
+  <si>
+    <t>Voltage Regulator</t>
+  </si>
+  <si>
+    <t>Operational Amplifier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +446,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -594,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -709,6 +751,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -755,11 +812,19 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -818,6 +883,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1139,470 +1208,581 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386317E7-03AD-4102-AE27-C666A58EF8EE}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="138.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.08984375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>691137710002</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3">
+        <v>691137710002</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3">
+        <v>691137710002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3">
+        <v>691137710002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3">
+        <v>691137710002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3">
+        <v>691137710002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3">
+        <v>691137710002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3">
+        <v>691137710002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4">
+        <v>61200621621</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
+      <c r="G20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="1">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="2">
-        <v>100</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{392F0D60-4F6E-43E4-B165-1F53CDEDBC38}"/>
-    <hyperlink ref="C22" r:id="rId2" xr:uid="{9B89F5B7-2353-4E2C-8910-E632270FE0FA}"/>
-    <hyperlink ref="C23" r:id="rId3" xr:uid="{47C8F5D5-A1A7-45E3-9796-3DCA13730706}"/>
-    <hyperlink ref="C24" r:id="rId4" xr:uid="{FBA69330-CDF4-44CE-8D04-784A5D76705C}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{2C04BB98-79A1-4883-AE48-688AB366A470}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{78028387-993F-4C61-9DC6-178B02AC4865}"/>
-    <hyperlink ref="C6:C13" r:id="rId7" display="https://www.we-online.com/katalog/datasheet/691137710002.pdf" xr:uid="{6D6DBB46-C0CD-4532-B30D-891507B4FDA5}"/>
-    <hyperlink ref="C15" r:id="rId8" xr:uid="{E3E91FFD-4F22-4E6E-BE23-A85AA966EBEC}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{1637E512-81AD-470E-8023-B4BA8E89AC45}"/>
-    <hyperlink ref="C17" r:id="rId10" xr:uid="{9A105216-0F35-4379-AE2F-2CD422FC91F8}"/>
-    <hyperlink ref="C18" r:id="rId11" xr:uid="{BCF30BDE-EE55-4047-92E0-9CE2DEE58165}"/>
-    <hyperlink ref="C19" r:id="rId12" xr:uid="{87642F3A-0BF1-48FC-A0BE-AC81F336D016}"/>
-    <hyperlink ref="C20" r:id="rId13" xr:uid="{BD4DCF96-7095-497D-970D-317A08678BAB}"/>
-    <hyperlink ref="C2" r:id="rId14" xr:uid="{10AE06E0-65D9-48D8-8DD5-2A01F4537480}"/>
-    <hyperlink ref="C4" r:id="rId15" xr:uid="{15EB29CA-BD78-429E-A6F2-3EA0758F3E7B}"/>
+    <hyperlink ref="D17" r:id="rId1" xr:uid="{392F0D60-4F6E-43E4-B165-1F53CDEDBC38}"/>
+    <hyperlink ref="D22" r:id="rId2" xr:uid="{9B89F5B7-2353-4E2C-8910-E632270FE0FA}"/>
+    <hyperlink ref="D23" r:id="rId3" xr:uid="{47C8F5D5-A1A7-45E3-9796-3DCA13730706}"/>
+    <hyperlink ref="D24" r:id="rId4" xr:uid="{FBA69330-CDF4-44CE-8D04-784A5D76705C}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{2C04BB98-79A1-4883-AE48-688AB366A470}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{78028387-993F-4C61-9DC6-178B02AC4865}"/>
+    <hyperlink ref="D7:D14" r:id="rId7" display="https://www.we-online.com/katalog/datasheet/691137710002.pdf" xr:uid="{6D6DBB46-C0CD-4532-B30D-891507B4FDA5}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{E3E91FFD-4F22-4E6E-BE23-A85AA966EBEC}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{1637E512-81AD-470E-8023-B4BA8E89AC45}"/>
+    <hyperlink ref="D18" r:id="rId10" xr:uid="{9A105216-0F35-4379-AE2F-2CD422FC91F8}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{BCF30BDE-EE55-4047-92E0-9CE2DEE58165}"/>
+    <hyperlink ref="D20" r:id="rId12" xr:uid="{87642F3A-0BF1-48FC-A0BE-AC81F336D016}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{BD4DCF96-7095-497D-970D-317A08678BAB}"/>
+    <hyperlink ref="D3" r:id="rId14" xr:uid="{10AE06E0-65D9-48D8-8DD5-2A01F4537480}"/>
+    <hyperlink ref="D5" r:id="rId15" xr:uid="{15EB29CA-BD78-429E-A6F2-3EA0758F3E7B}"/>
+    <hyperlink ref="D14" r:id="rId16" xr:uid="{87AEAB0B-DC50-4B8A-A3B3-24B33950D7B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
